--- a/century_spice.xlsx
+++ b/century_spice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Score Card" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,12 +106,16 @@
     <t>Set</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +134,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -212,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +255,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,22 +540,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="7"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,14 +579,17 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -582,21 +601,28 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(COUNTIF(A2:D2,"&gt;=1"),J:K,2,FALSE)</f>
+        <f t="shared" ref="F2:F37" si="0">VLOOKUP(COUNTIF(A2:D2,"&gt;=1"),K:L,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2" s="9">
         <f>E2+F2</f>
         <v>6</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"{id:"&amp;H2&amp;", yellow:"&amp;IF(A2="",0,A2)&amp;",red:"&amp;IF(B2="",0,B2)&amp;",green:"&amp;IF(C2="",0,C2)&amp;",brown:"&amp;IF(D2="",0,D2)&amp;",score:"&amp;G2&amp;"},"</f>
+        <v>{id:1, yellow:2,red:2,green:0,brown:0,score:6},</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -604,48 +630,62 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E37" si="0">A3*1+B3*2+C3*3+D3*4</f>
+        <f t="shared" ref="E3:E37" si="1">A3*1+B3*2+C3*3+D3*4</f>
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F37" si="1">VLOOKUP(COUNTIF(A3:D3,"&gt;=1"),J:K,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G37" si="2">E3+F3</f>
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I37" si="3">"{id:"&amp;H3&amp;", yellow:"&amp;IF(A3="",0,A3)&amp;",red:"&amp;IF(B3="",0,B3)&amp;",green:"&amp;IF(C3="",0,C3)&amp;",brown:"&amp;IF(D3="",0,D3)&amp;",score:"&amp;G3&amp;"},"</f>
+        <v>{id:2, yellow:3,red:2,green:0,brown:0,score:7},</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="5">
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:3, yellow:0,red:4,green:0,brown:0,score:8},</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -653,25 +693,32 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:4, yellow:2,red:0,green:2,brown:0,score:8},</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -679,19 +726,26 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:5, yellow:2,red:3,green:0,brown:0,score:8},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -702,19 +756,26 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:6, yellow:2,red:1,green:0,brown:1,score:9},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -722,36 +783,50 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <v>7</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:7, yellow:3,red:0,green:2,brown:0,score:9},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:8, yellow:0,red:5,green:0,brown:0,score:10},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -759,19 +834,26 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="11">
+        <v>9</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:9, yellow:2,red:0,green:0,brown:2,score:10},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -779,19 +861,26 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:10, yellow:0,red:2,green:2,brown:0,score:10},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -799,19 +888,26 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="11">
+        <v>11</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:11, yellow:2,red:0,green:3,brown:0,score:11},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -819,19 +915,26 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="11">
+        <v>12</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:12, yellow:3,red:0,green:0,brown:2,score:11},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -839,19 +942,26 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="11">
+        <v>13</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:13, yellow:0,red:2,green:0,brown:2,score:12},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -865,19 +975,26 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="11">
+        <v>14</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:14, yellow:1,red:1,green:1,brown:1,score:12},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -885,36 +1002,50 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="11">
+        <v>15</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:15, yellow:0,red:3,green:2,brown:0,score:12},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="C17" s="6">
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="11">
+        <v>16</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:16, yellow:0,red:0,green:4,brown:0,score:12},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -925,19 +1056,26 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
+        <v>17</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:17, yellow:0,red:2,green:1,brown:1,score:12},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -948,19 +1086,26 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="11">
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:18, yellow:1,red:0,green:2,brown:1,score:12},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -968,19 +1113,26 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="11">
+        <v>19</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:19, yellow:0,red:2,green:3,brown:0,score:13},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -991,19 +1143,26 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="11">
+        <v>20</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:20, yellow:2,red:2,green:2,brown:0,score:13},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="C22" s="6">
         <v>2</v>
       </c>
@@ -1011,19 +1170,26 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="11">
+        <v>21</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:21, yellow:0,red:0,green:2,brown:2,score:14},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -1031,19 +1197,26 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="11">
+        <v>22</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:22, yellow:2,red:0,green:0,brown:3,score:14},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -1051,19 +1224,26 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="11">
+        <v>23</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:23, yellow:0,red:3,green:0,brown:2,score:14},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -1077,36 +1257,50 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="11">
+        <v>24</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:24, yellow:3,red:1,green:1,brown:1,score:14},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="C26" s="6">
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
+        <v>25</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:25, yellow:0,red:0,green:5,brown:0,score:15},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1117,19 +1311,26 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="11">
+        <v>26</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:26, yellow:2,red:2,green:0,brown:2,score:15},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" s="5">
         <v>2</v>
       </c>
@@ -1137,36 +1338,50 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="11">
+        <v>27</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:27, yellow:0,red:2,green:0,brown:3,score:16},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="D29" s="7">
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="11">
+        <v>28</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:28, yellow:0,red:0,green:0,brown:4,score:16},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1180,19 +1395,26 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="11">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:29, yellow:1,red:3,green:1,brown:1,score:16},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1203,19 +1425,26 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="11">
+        <v>30</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:30, yellow:2,red:0,green:2,brown:2,score:17},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="C32" s="6">
         <v>3</v>
       </c>
@@ -1223,19 +1452,26 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="11">
+        <v>31</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:31, yellow:0,red:0,green:3,brown:2,score:17},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="C33" s="6">
         <v>2</v>
       </c>
@@ -1243,19 +1479,26 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="11">
+        <v>32</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:32, yellow:0,red:0,green:2,brown:3,score:18},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1269,19 +1512,26 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="11">
+        <v>33</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:33, yellow:1,red:1,green:3,brown:1,score:18},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="5">
         <v>2</v>
       </c>
@@ -1292,19 +1542,26 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="11">
+        <v>34</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:34, yellow:0,red:2,green:2,brown:2,score:19},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1318,33 +1575,47 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="11">
+        <v>35</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:35, yellow:1,red:1,green:1,brown:3,score:20},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="D37" s="7">
         <v>5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
+      </c>
+      <c r="H37" s="11">
+        <v>36</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:36, yellow:0,red:0,green:0,brown:5,score:20},</v>
       </c>
     </row>
   </sheetData>
@@ -1356,13 +1627,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="9" style="5"/>
@@ -1377,9 +1648,10 @@
     <col min="11" max="11" width="9" style="6"/>
     <col min="12" max="12" width="9" style="7"/>
     <col min="13" max="13" width="9" style="10"/>
+    <col min="22" max="22" width="112.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1411,8 +1683,9 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1740,11 @@
       <c r="T2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="B3" s="5">
         <v>3</v>
       </c>
@@ -1509,8 +1785,15 @@
         <f>N3*S3</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="str">
+        <f>"{id:"&amp;U3&amp;", from:{yellow:"&amp;IF(A3="",0,A3)&amp;",red:"&amp;IF(B3="",0,B3)&amp;",green:"&amp;IF(C3="",0,C3)&amp;",brown:"&amp;IF(D3="",0,D3)&amp;"},to:{yellow:"&amp;IF(E3="",0,E3)&amp;",red:"&amp;IF(F3="",0,F3)&amp;",green:"&amp;IF(G3="",0,G3)&amp;",brown:"&amp;IF(H3="",0,H3)&amp;"},free:{yellow:"&amp;IF(I3="",0,I3)&amp;",red:"&amp;IF(J3="",0,J3)&amp;",green:"&amp;IF(K3="",0,K3)&amp;",brown:"&amp;IF(L3="",0,L3)&amp;"},up:"&amp;IF(M3="",0,M3)&amp;"},"</f>
+        <v>{id:1, from:{yellow:0,red:3,green:0,brown:0},to:{yellow:1,red:0,green:1,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="L4" s="7">
         <v>1</v>
       </c>
@@ -1542,8 +1825,15 @@
         <f t="shared" ref="T4:T45" si="6">N4*S4</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V45" si="7">"{id:"&amp;U4&amp;", from:{yellow:"&amp;IF(A4="",0,A4)&amp;",red:"&amp;IF(B4="",0,B4)&amp;",green:"&amp;IF(C4="",0,C4)&amp;",brown:"&amp;IF(D4="",0,D4)&amp;"},to:{yellow:"&amp;IF(E4="",0,E4)&amp;",red:"&amp;IF(F4="",0,F4)&amp;",green:"&amp;IF(G4="",0,G4)&amp;",brown:"&amp;IF(H4="",0,H4)&amp;"},free:{yellow:"&amp;IF(I4="",0,I4)&amp;",red:"&amp;IF(J4="",0,J4)&amp;",green:"&amp;IF(K4="",0,K4)&amp;",brown:"&amp;IF(L4="",0,L4)&amp;"},up:"&amp;IF(M4="",0,M4)&amp;"},"</f>
+        <v>{id:2, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:1},up:0},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="J5" s="5">
         <v>2</v>
       </c>
@@ -1575,8 +1865,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:3, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:0,red:2,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -1611,8 +1908,15 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:4, from:{yellow:0,red:0,green:3,brown:0},to:{yellow:0,red:0,green:0,brown:3},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1647,8 +1951,15 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:5, from:{yellow:5,red:0,green:0,brown:0},to:{yellow:0,red:0,green:3,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1686,8 +1997,15 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:6, from:{yellow:2,red:0,green:1,brown:0},to:{yellow:0,red:0,green:0,brown:2},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1722,8 +2040,15 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:7, from:{yellow:0,red:2,green:0,brown:0},to:{yellow:0,red:0,green:2,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="C10" s="6">
         <v>2</v>
       </c>
@@ -1761,8 +2086,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:8, from:{yellow:0,red:0,green:2,brown:0},to:{yellow:0,red:2,green:0,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="D11" s="7">
         <v>1</v>
       </c>
@@ -1797,8 +2129,15 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:9, from:{yellow:0,red:0,green:0,brown:1},to:{yellow:0,red:0,green:2,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="I12" s="3">
         <v>1</v>
       </c>
@@ -1833,8 +2172,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:10, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:1,red:1,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1869,8 +2215,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:11, from:{yellow:3,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1908,8 +2261,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:12, from:{yellow:0,red:2,green:0,brown:0},to:{yellow:3,red:0,green:1,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="D15" s="7">
         <v>1</v>
       </c>
@@ -1944,8 +2304,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:13, from:{yellow:0,red:0,green:0,brown:1},to:{yellow:0,red:3,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -1983,8 +2350,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:14, from:{yellow:4,red:0,green:0,brown:0},to:{yellow:0,red:0,green:1,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" s="5">
         <v>1</v>
       </c>
@@ -2019,8 +2393,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:15, from:{yellow:0,red:1,green:0,brown:0},to:{yellow:3,red:0,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="K18" s="6">
         <v>1</v>
       </c>
@@ -2052,8 +2433,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:16, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:0,red:0,green:1,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2091,8 +2479,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:17, from:{yellow:3,red:0,green:0,brown:0},to:{yellow:0,red:1,green:1,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -2127,8 +2522,15 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:18, from:{yellow:2,red:0,green:0,brown:0},to:{yellow:0,red:0,green:1,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="I21" s="3">
         <v>2</v>
       </c>
@@ -2163,8 +2565,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>19</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:19, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:2,red:1,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="C22" s="6">
         <v>1</v>
       </c>
@@ -2202,8 +2611,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:20, from:{yellow:0,red:0,green:1,brown:0},to:{yellow:1,red:2,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="B23" s="5">
         <v>3</v>
       </c>
@@ -2241,8 +2657,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>21</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:21, from:{yellow:0,red:3,green:0,brown:0},to:{yellow:2,red:0,green:2,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="C24" s="6">
         <v>2</v>
       </c>
@@ -2283,8 +2706,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>22</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:22, from:{yellow:0,red:0,green:2,brown:0},to:{yellow:2,red:1,green:0,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="C25" s="6">
         <v>1</v>
       </c>
@@ -2319,8 +2749,15 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:23, from:{yellow:0,red:0,green:1,brown:0},to:{yellow:0,red:2,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -2355,8 +2792,15 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>24</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:24, from:{yellow:2,red:0,green:0,brown:0},to:{yellow:0,red:2,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="D27" s="7">
         <v>2</v>
       </c>
@@ -2397,8 +2841,15 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>25</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:25, from:{yellow:0,red:0,green:0,brown:2},to:{yellow:1,red:1,green:3,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="D28" s="7">
         <v>2</v>
       </c>
@@ -2436,8 +2887,15 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:26, from:{yellow:0,red:0,green:0,brown:2},to:{yellow:0,red:3,green:2,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="I29" s="3">
         <v>3</v>
       </c>
@@ -2469,8 +2927,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>27</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:27, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:3,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="B30" s="5">
         <v>3</v>
       </c>
@@ -2505,8 +2970,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:28, from:{yellow:0,red:3,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:2},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2544,8 +3016,15 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>29</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:29, from:{yellow:1,red:1,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -2583,8 +3062,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>30</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:30, from:{yellow:0,red:0,green:0,brown:1},to:{yellow:3,red:0,green:1,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="D33" s="7">
         <v>1</v>
       </c>
@@ -2622,8 +3108,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>31</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:31, from:{yellow:0,red:0,green:0,brown:1},to:{yellow:2,red:2,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="C34" s="6">
         <v>2</v>
       </c>
@@ -2661,8 +3154,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>32</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:32, from:{yellow:0,red:0,green:2,brown:0},to:{yellow:2,red:3,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="D35" s="7">
         <v>1</v>
       </c>
@@ -2703,8 +3203,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>33</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:33, from:{yellow:0,red:0,green:0,brown:1},to:{yellow:1,red:1,green:1,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -2739,8 +3246,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>34</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:34, from:{yellow:5,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:2},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="C37" s="6">
         <v>2</v>
       </c>
@@ -2775,8 +3289,15 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>35</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:35, from:{yellow:0,red:0,green:2,brown:0},to:{yellow:0,red:0,green:0,brown:2},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -2811,8 +3332,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>36</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:36, from:{yellow:4,red:0,green:0,brown:0},to:{yellow:0,red:0,green:2,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="I39" s="3">
         <v>4</v>
       </c>
@@ -2844,8 +3372,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>37</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:37, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:4,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -2880,8 +3415,15 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>38</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:38, from:{yellow:3,red:0,green:0,brown:0},to:{yellow:0,red:3,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="C41" s="6">
         <v>1</v>
       </c>
@@ -2919,8 +3461,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>39</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:39, from:{yellow:0,red:0,green:1,brown:0},to:{yellow:4,red:1,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="M42" s="10">
         <v>3</v>
       </c>
@@ -2952,8 +3501,15 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>40</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:40, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:3},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2988,8 +3544,15 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>41</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:41, from:{yellow:0,red:3,green:0,brown:0},to:{yellow:0,red:0,green:3,brown:0},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="B44" s="5">
         <v>2</v>
       </c>
@@ -3027,8 +3590,15 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>42</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:42, from:{yellow:0,red:2,green:0,brown:0},to:{yellow:2,red:0,green:0,brown:1},free:{yellow:0,red:0,green:0,brown:0},up:0},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="I45" s="3">
         <v>1</v>
       </c>
@@ -3062,6 +3632,13 @@
       <c r="T45">
         <f t="shared" si="6"/>
         <v>4</v>
+      </c>
+      <c r="U45">
+        <v>43</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="7"/>
+        <v>{id:43, from:{yellow:0,red:0,green:0,brown:0},to:{yellow:0,red:0,green:0,brown:0},free:{yellow:1,red:0,green:1,brown:0},up:0},</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/century_spice.xlsx
+++ b/century_spice.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Score Card" sheetId="1" r:id="rId1"/>
     <sheet name="Trade Card" sheetId="2" r:id="rId2"/>
-    <sheet name="Start Card" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -542,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
@@ -1629,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U45" sqref="A45:U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3669,17 +3668,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>